--- a/dsRNA_aas_unique.xlsx
+++ b/dsRNA_aas_unique.xlsx
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1371,13 +1371,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
